--- a/lokantama.xlsx
+++ b/lokantama.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>435.51808998476577</v>
+        <v>436.3375839031448</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>439.2449882171083</v>
+        <v>439.53193333402595</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>443.1635777152187</v>
+        <v>443.1220457825306</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>447.10378584622646</v>
+        <v>446.79752073828143</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>451.389439266109</v>
+        <v>450.9973281858902</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>454.8332051792494</v>
+        <v>454.3363429907418</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>457.1439675883715</v>
+        <v>456.3048076638509</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>461.7700823723317</v>
+        <v>461.40110318521835</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>466.0208710195979</v>
+        <v>465.92967305950157</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>469.8992977475807</v>
+        <v>470.1216464529029</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>474.4318352808238</v>
+        <v>474.9995364576809</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>479.9044000140532</v>
+        <v>480.63176489259</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>485.46137104353267</v>
+        <v>486.34919159316973</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>489.61646742651465</v>
+        <v>489.84322798213844</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>494.3690040903237</v>
+        <v>494.195017872339</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>499.3625067711875</v>
+        <v>498.87461743263896</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>505.3937996801608</v>
+        <v>504.73291376843065</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>511.90184956122965</v>
+        <v>511.1981971352271</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>517.2364298159115</v>
+        <v>516.3802236153775</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>525.646853777455</v>
+        <v>525.2869071440128</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>535.1331539174763</v>
+        <v>535.1152028153988</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>559.7670908042969</v>
+        <v>560.153614651521</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>569.7170716560196</v>
+        <v>570.60113973412</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>576.5388686923013</v>
+        <v>577.4675595979471</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>582.3730923693454</v>
+        <v>583.4474088264017</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>586.9088147458339</v>
+        <v>587.1901788970931</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>591.797756123423</v>
+        <v>591.5818025764669</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>596.4175934792779</v>
+        <v>595.8673038688471</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>603.6805989694005</v>
+        <v>602.8162388506814</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>613.1991045262686</v>
+        <v>612.0689546997594</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>622.8121999453596</v>
+        <v>622.0825077119656</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>629.4994282390874</v>
+        <v>629.1630219969835</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>634.8592393787919</v>
+        <v>634.7345289293542</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>643.758523948514</v>
+        <v>644.2124033798898</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>649.9942180158628</v>
+        <v>650.766396945174</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>654.0033515583492</v>
+        <v>654.8600107254696</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>660.9468336907535</v>
+        <v>662.0905897998778</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>666.3542366565345</v>
+        <v>666.6802258699249</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>671.0107489393407</v>
+        <v>670.7436759682803</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>675.3389707373425</v>
+        <v>675.220457092894</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>676.7787626014956</v>
+        <v>676.1999128578866</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>678.9730216378827</v>
+        <v>677.6482098580582</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>688.9836553730132</v>
+        <v>688.5709212234442</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>698.055458818279</v>
+        <v>697.6266428666598</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>709.1401078877581</v>
+        <v>709.1733953551386</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>717.1694334589688</v>
+        <v>717.0532599002429</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>727.135991803088</v>
+        <v>727.1584489275409</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>739.5261047188892</v>
+        <v>740.1140178979508</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>748.968477363063</v>
+        <v>749.8094712330598</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>753.0856368305499</v>
+        <v>753.2996565206658</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>760.3777440741579</v>
+        <v>760.1200458573683</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>775.4725923814972</v>
+        <v>776.1800469770149</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>785.4347685820771</v>
+        <v>785.8535664146029</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>793.5204562152011</v>
+        <v>793.0196539018008</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>814.5947862904221</v>
+        <v>814.8606098754942</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>839.4423841135459</v>
+        <v>839.4324561314979</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>862.8024453930888</v>
+        <v>862.4958229541465</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>887.4423092318463</v>
+        <v>886.5231296273167</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>917.6086905019927</v>
+        <v>916.1153861305089</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>960.4384186946321</v>
+        <v>959.7601280108004</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>1065.6058846027286</v>
+        <v>1064.6725489507398</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>1136.7587412752832</v>
+        <v>1135.8603307160802</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>1178.7705549232064</v>
+        <v>1178.0625822775332</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1242.618312487124</v>
+        <v>1243.771876661884</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>1323.0573854592724</v>
+        <v>1325.1147525599347</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>1387.7268823716324</v>
+        <v>1390.290060272532</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>1450.6718369834007</v>
+        <v>1454.0775392268874</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1499.1091016596893</v>
+        <v>1500.4857867783116</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1556.492531684124</v>
+        <v>1557.6203541664206</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1609.670746661152</v>
+        <v>1608.67318285036</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1671.3423516785645</v>
+        <v>1669.0534277769784</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1741.3727516484182</v>
+        <v>1738.6752003046083</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1809.8016651913247</v>
+        <v>1805.6141232533719</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1996.5338703389104</v>
+        <v>1992.957618751443</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>2056.607587817233</v>
+        <v>2053.1366465839155</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>2128.3718405516</v>
+        <v>2127.3871405588766</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>2202.208075611121</v>
+        <v>2204.4405251368894</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>2331.568137879974</v>
+        <v>2337.7977571375295</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>2425.984538191088</v>
+        <v>2431.1105308548426</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2730.172782626467</v>
+        <v>2734.454607537788</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>2948.4092476093924</v>
+        <v>2951.0095647112153</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>3092.5094195981146</v>
+        <v>3093.5798536034245</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>3238.242958422036</v>
+        <v>3237.3314199184088</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>3367.869226382053</v>
+        <v>3362.482992779633</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>3507.175832979323</v>
+        <v>3498.732475266497</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>3833.338759667494</v>
+        <v>3827.081642728095</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>4000.497898176935</v>
+        <v>3991.2072088695954</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>4151.541374221045</v>
+        <v>4147.33919208233</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>4314.6011187894055</v>
+        <v>4317.450026073143</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>4489.5371885502855</v>
+        <v>4502.566905106459</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>4632.254980036657</v>
+        <v>4640.702407743011</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>4800.823314281647</v>
+        <v>4810.617725014737</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>4950.295729455125</v>
+        <v>4955.408829448703</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>5110.427300633695</v>
+        <v>5115.648808747177</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>5249.855737007743</v>
+        <v>5250.332069755347</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>5374.8200906777265</v>
+        <v>5366.096945666402</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>5522.438714242224</v>
+        <v>5507.054780029988</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>5704.412854485676</v>
+        <v>5699.519784043516</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>5834.708583936559</v>
+        <v>5835.664217215538</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>5950.733641456617</v>
+        <v>5907.753196031584</v>
       </c>
     </row>
   </sheetData>

--- a/lokantama.xlsx
+++ b/lokantama.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>436.3375839031448</v>
+        <v>435.13662760093166</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>439.53193333402595</v>
+        <v>439.0856584763989</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>443.1220457825306</v>
+        <v>443.1406083005164</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>446.79752073828143</v>
+        <v>447.2300018465177</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>450.9973281858902</v>
+        <v>451.5364276632791</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>454.3363429907418</v>
+        <v>455.0239370050959</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>456.3048076638509</v>
+        <v>457.56562243188984</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>461.40110318521835</v>
+        <v>461.9659837000951</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>465.92967305950157</v>
+        <v>466.0788458026251</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>470.1216464529029</v>
+        <v>469.8063359203254</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>474.9995364576809</v>
+        <v>474.1710823271189</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>480.63176489259</v>
+        <v>479.5617311986083</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>486.34919159316973</v>
+        <v>485.05074384623094</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>489.84322798213844</v>
+        <v>489.50653899732373</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>494.195017872339</v>
+        <v>494.44304906610415</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>498.87461743263896</v>
+        <v>499.64573530960496</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>504.73291376843065</v>
+        <v>505.75258347306743</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>511.1981971352271</v>
+        <v>512.2413894827348</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>516.3802236153775</v>
+        <v>517.6829151493703</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>525.2869071440128</v>
+        <v>525.8345687538585</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>535.1152028153988</v>
+        <v>535.1310235999154</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>560.153614651521</v>
+        <v>559.5342445494156</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>570.60113973412</v>
+        <v>569.2078521355403</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>577.4675595979471</v>
+        <v>576.0352930502447</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>583.4474088264017</v>
+        <v>581.8242970056932</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>587.1901788970931</v>
+        <v>586.7432200689466</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>591.5818025764669</v>
+        <v>591.8708826505077</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>595.8673038688471</v>
+        <v>596.7827224664384</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>602.8162388506814</v>
+        <v>604.2294477651337</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>612.0689546997594</v>
+        <v>613.8575094540005</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>622.0825077119656</v>
+        <v>623.2272187334556</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>629.1630219969835</v>
+        <v>629.6859480384355</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>634.7345289293542</v>
+        <v>634.9317484956109</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>644.2124033798898</v>
+        <v>643.4586690142123</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>650.766396945174</v>
+        <v>649.5080751223722</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>654.8600107254696</v>
+        <v>653.4906688163954</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>662.0905897998778</v>
+        <v>660.2822631940719</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>666.6802258699249</v>
+        <v>666.1029133383901</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>670.7436759682803</v>
+        <v>671.0387169351008</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>675.220457092894</v>
+        <v>675.4553819761533</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>676.1999128578866</v>
+        <v>677.2131799553046</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>677.6482098580582</v>
+        <v>679.8595964528662</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>688.5709212234442</v>
+        <v>689.3139960533331</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>697.6266428666598</v>
+        <v>698.3601266691212</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>709.1733953551386</v>
+        <v>709.1480696766273</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>717.0532599002429</v>
+        <v>717.249958390161</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>727.1584489275409</v>
+        <v>727.1017578959847</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>740.1140178979508</v>
+        <v>739.1102754367236</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>749.8094712330598</v>
+        <v>748.373200446135</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>753.2996565206658</v>
+        <v>752.7933963962287</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>760.1200458573683</v>
+        <v>760.2182552257005</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>776.1800469770149</v>
+        <v>775.0555869592345</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>785.8535664146029</v>
+        <v>785.2497379055101</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>793.0196539018008</v>
+        <v>793.9469310095615</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>814.8606098754942</v>
+        <v>814.5933393171164</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>839.4324561314979</v>
+        <v>839.5731120899624</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>862.4958229541465</v>
+        <v>863.1444076219457</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>886.5231296273167</v>
+        <v>888.158741448711</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>916.1153861305089</v>
+        <v>918.6429456695856</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>959.7601280108004</v>
+        <v>960.857164684412</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>1064.6725489507398</v>
+        <v>1066.119602463861</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>1135.8603307160802</v>
+        <v>1137.0422200028554</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>1178.0625822775332</v>
+        <v>1178.4665028994953</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1243.771876661884</v>
+        <v>1242.0788591951625</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>1325.1147525599347</v>
+        <v>1321.9257894329949</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>1390.290060272532</v>
+        <v>1386.2325463815744</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>1454.0775392268874</v>
+        <v>1448.6784608402672</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1500.4857867783116</v>
+        <v>1498.3719549468633</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1557.6203541664206</v>
+        <v>1555.9160924143077</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1608.67318285036</v>
+        <v>1610.3853491293937</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1669.0534277769784</v>
+        <v>1672.750072366714</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1738.6752003046083</v>
+        <v>1742.8953809166292</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1805.6141232533719</v>
+        <v>1812.1113909651494</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1992.957618751443</v>
+        <v>1998.1254654209577</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>2053.1366465839155</v>
+        <v>2056.864431786419</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>2127.3871405588766</v>
+        <v>2130.455436266161</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>2204.4405251368894</v>
+        <v>2201.957085122559</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>2337.7977571375295</v>
+        <v>2328.572031548573</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>2431.1105308548426</v>
+        <v>2423.503166629395</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2734.454607537788</v>
+        <v>2728.095259355797</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>2951.0095647112153</v>
+        <v>2947.0761629688823</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>3093.5798536034245</v>
+        <v>3091.648378765769</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>3237.3314199184088</v>
+        <v>3238.0835325805156</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>3362.482992779633</v>
+        <v>3370.064774085523</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>3498.732475266497</v>
+        <v>3510.6472597902716</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>3827.081642728095</v>
+        <v>3834.4834017944027</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>3991.2072088695954</v>
+        <v>3999.169763659035</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>4147.33919208233</v>
+        <v>4160.421863489006</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>4317.450026073143</v>
+        <v>4317.291623968756</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>4502.566905106459</v>
+        <v>4484.599241693793</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>4640.702407743011</v>
+        <v>4629.355081112305</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>4810.617725014737</v>
+        <v>4796.265507410532</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>4955.408829448703</v>
+        <v>4947.489120664415</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>5115.648808747177</v>
+        <v>5106.334623034755</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>5250.332069755347</v>
+        <v>5247.467430078963</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>5366.096945666402</v>
+        <v>5376.955648295057</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>5507.054780029988</v>
+        <v>5527.157430191194</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>5699.519784043516</v>
+        <v>5707.250698388633</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>5835.664217215538</v>
+        <v>5845.622801473916</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,15 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>5907.753196031584</v>
+        <v>5945.084613494836</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>45748.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>6087.819575678359</v>
       </c>
     </row>
   </sheetData>

--- a/lokantama.xlsx
+++ b/lokantama.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>435.13662760093166</v>
+        <v>434.919666268795</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>439.0856584763989</v>
+        <v>438.9897804328139</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>443.1406083005164</v>
+        <v>443.122187003226</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>447.2300018465177</v>
+        <v>447.2895101153531</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>451.5364276632791</v>
+        <v>451.59605591339414</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>455.0239370050959</v>
+        <v>455.1113287642244</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>457.56562243188984</v>
+        <v>457.8274431635651</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>461.9659837000951</v>
+        <v>462.0925017578064</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>466.0788458026251</v>
+        <v>466.1199931078565</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>469.8063359203254</v>
+        <v>469.76490085072766</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>474.1710823271189</v>
+        <v>474.03017171277884</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>479.5617311986083</v>
+        <v>479.36738959439947</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>485.05074384623094</v>
+        <v>484.8202268359417</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>489.50653899732373</v>
+        <v>489.4590645030341</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>494.44304906610415</v>
+        <v>494.51665314439873</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>499.64573530960496</v>
+        <v>499.8452035625482</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>505.75258347306743</v>
+        <v>505.992467145997</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>512.2413894827348</v>
+        <v>512.4483416301165</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>517.6829151493703</v>
+        <v>517.9691025838733</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>525.8345687538585</v>
+        <v>525.9530384277233</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>535.1310235999154</v>
+        <v>535.1141041622312</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>559.5342445494156</v>
+        <v>559.3695714119003</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>569.2078521355403</v>
+        <v>568.8528171949517</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>576.0352930502447</v>
+        <v>575.7031082013859</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>581.8242970056932</v>
+        <v>581.4834208246039</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>586.7432200689466</v>
+        <v>586.6536137966478</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>591.8708826505077</v>
+        <v>591.9562443786427</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>596.7827224664384</v>
+        <v>597.055489535845</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>604.2294477651337</v>
+        <v>604.6368491063869</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>613.8575094540005</v>
+        <v>614.3207132426227</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>623.2272187334556</v>
+        <v>623.5108335883953</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>629.6859480384355</v>
+        <v>629.8047811648303</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>634.9317484956109</v>
+        <v>634.9723705999784</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>643.4586690142123</v>
+        <v>643.2259237247118</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>649.5080751223722</v>
+        <v>649.1467065066984</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>653.4906688163954</v>
+        <v>653.1273627663439</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>660.2822631940719</v>
+        <v>659.8265043348929</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>666.1029133383901</v>
+        <v>665.9395113916696</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>671.0387169351008</v>
+        <v>671.0988316490082</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>675.4553819761533</v>
+        <v>675.5244418270233</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>677.2131799553046</v>
+        <v>677.5513800265211</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>679.8595964528662</v>
+        <v>680.5372117543102</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>689.3139960533331</v>
+        <v>689.5917604911126</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>698.3601266691212</v>
+        <v>698.5915989561892</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>709.1480696766273</v>
+        <v>709.1583684655928</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>717.249958390161</v>
+        <v>717.3081269991386</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>727.1017578959847</v>
+        <v>727.0676401477941</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>739.1102754367236</v>
+        <v>738.7903350143524</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>748.373200446135</v>
+        <v>747.9174061215551</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>752.7933963962287</v>
+        <v>752.5775626609708</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>760.2182552257005</v>
+        <v>760.1406645358819</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>775.0555869592345</v>
+        <v>774.6322038126868</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>785.2497379055101</v>
+        <v>785.0694357565069</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>793.9469310095615</v>
+        <v>794.2733530877726</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>814.5933393171164</v>
+        <v>814.6477828823083</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>839.5731120899624</v>
+        <v>839.7106235581484</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>863.1444076219457</v>
+        <v>863.4675658206838</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>888.158741448711</v>
+        <v>888.7814775094607</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>918.6429456695856</v>
+        <v>919.5034018733187</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>960.857164684412</v>
+        <v>961.2464351878386</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>1066.119602463861</v>
+        <v>1066.5544818341757</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>1137.0422200028554</v>
+        <v>1137.3813990263054</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>1178.4665028994953</v>
+        <v>1178.4618417576653</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1242.0788591951625</v>
+        <v>1241.330338021071</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>1321.9257894329949</v>
+        <v>1320.8316072267253</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>1386.2325463815744</v>
+        <v>1384.9435210189258</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>1448.6784608402672</v>
+        <v>1447.0735810100566</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1498.3719549468633</v>
+        <v>1497.7174664467516</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1555.9160924143077</v>
+        <v>1555.4571020604158</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1610.3853491293937</v>
+        <v>1610.9485716908782</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1672.750072366714</v>
+        <v>1673.877838686969</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1742.8953809166292</v>
+        <v>1744.1657554378796</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1812.1113909651494</v>
+        <v>1813.9896816119306</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1998.1254654209577</v>
+        <v>1999.8797182185228</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>2056.864431786419</v>
+        <v>2058.1724399624536</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>2130.455436266161</v>
+        <v>2131.344787812981</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>2201.957085122559</v>
+        <v>2201.367311482798</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>2328.572031548573</v>
+        <v>2326.155940368249</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>2423.503166629395</v>
+        <v>2421.4655145493143</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2728.095259355797</v>
+        <v>2726.3323974108025</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>2947.0761629688823</v>
+        <v>2945.874623229482</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>3091.648378765769</v>
+        <v>3090.817881240208</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>3238.0835325805156</v>
+        <v>3237.8412491974195</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>3370.064774085523</v>
+        <v>3371.7297373333777</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>3510.6472597902716</v>
+        <v>3513.4428299844712</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>3834.4834017944027</v>
+        <v>3836.9828813762206</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>3999.169763659035</v>
+        <v>4002.3810853346527</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>4160.421863489006</v>
+        <v>4164.888418067273</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>4317.291623968756</v>
+        <v>4317.7881832238845</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>4484.599241693793</v>
+        <v>4480.023950117757</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>4629.355081112305</v>
+        <v>4626.108994346373</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>4796.265507410532</v>
+        <v>4791.790268173393</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>4947.489120664415</v>
+        <v>4944.282002490907</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>5106.334623034755</v>
+        <v>5102.451952037914</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>5247.467430078963</v>
+        <v>5245.339266342942</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>5376.955648295057</v>
+        <v>5378.94219322282</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>5527.157430191194</v>
+        <v>5532.052301158412</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>5707.250698388633</v>
+        <v>5710.5999076145235</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>5845.622801473916</v>
+        <v>5851.142623762562</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>5945.084613494836</v>
+        <v>5960.379890754808</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>6087.819575678359</v>
+        <v>6119.389638640292</v>
       </c>
     </row>
   </sheetData>

--- a/lokantama.xlsx
+++ b/lokantama.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>434.919666268795</v>
+        <v>434.6200256100577</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>438.9897804328139</v>
+        <v>438.8156912168861</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>443.122187003226</v>
+        <v>443.0270032198579</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>447.2895101153531</v>
+        <v>447.2769194230856</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>451.59605591339414</v>
+        <v>451.5493682387005</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>455.1113287642244</v>
+        <v>455.1129837712313</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>457.8274431635651</v>
+        <v>458.1364519000034</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>462.0925017578064</v>
+        <v>462.22975642810235</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>466.1199931078565</v>
+        <v>466.1404306823668</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>469.76490085072766</v>
+        <v>469.7004270793875</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>474.03017171277884</v>
+        <v>473.84035841670766</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>479.36738959439947</v>
+        <v>479.0934672373347</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>484.8202268359417</v>
+        <v>484.5058376219674</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>489.4590645030341</v>
+        <v>489.3921154787373</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>494.51665314439873</v>
+        <v>494.62695238029914</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>499.8452035625482</v>
+        <v>500.14864399948505</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>505.992467145997</v>
+        <v>506.3251655937829</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>512.4483416301165</v>
+        <v>512.6863181378287</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>517.9691025838733</v>
+        <v>518.3330805177955</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>525.9530384277233</v>
+        <v>526.0706213493457</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>535.1141041622312</v>
+        <v>534.9954526444667</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>559.3695714119003</v>
+        <v>559.0239984431136</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>568.8528171949517</v>
+        <v>568.1978933564781</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>575.7031082013859</v>
+        <v>575.1221712054961</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>581.4834208246039</v>
+        <v>580.9379683620972</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>586.6536137966478</v>
+        <v>586.485445474192</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>591.9562443786427</v>
+        <v>592.0815504874262</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>597.055489535845</v>
+        <v>597.5250688129572</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>604.6368491063869</v>
+        <v>605.3270682402277</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>614.3207132426227</v>
+        <v>615.045499310827</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>623.5108335883953</v>
+        <v>623.9143547624899</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>629.8047811648303</v>
+        <v>629.9220006089247</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>634.9723705999784</v>
+        <v>634.9458420284618</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>643.2259237247118</v>
+        <v>642.7188812728879</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>649.1467065066984</v>
+        <v>648.4208253754991</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>653.1273627663439</v>
+        <v>652.423527807132</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>659.8265043348929</v>
+        <v>659.0026894731861</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>665.9395113916696</v>
+        <v>665.5801451389599</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>671.0988316490082</v>
+        <v>671.1185302097971</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>675.5244418270233</v>
+        <v>675.6102205349636</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>677.5513800265211</v>
+        <v>678.1719431275384</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>680.5372117543102</v>
+        <v>681.7639718623585</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>689.5917604911126</v>
+        <v>690.156845501261</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>698.5915989561892</v>
+        <v>698.9858399693394</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>709.1583684655928</v>
+        <v>709.1519727964894</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>717.3081269991386</v>
+        <v>717.3357621795906</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>727.0676401477941</v>
+        <v>726.8904863787869</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>738.7903350143524</v>
+        <v>738.0768345989705</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>747.9174061215551</v>
+        <v>746.9261699792775</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>752.5775626609708</v>
+        <v>751.9534451464875</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>760.1406645358819</v>
+        <v>759.6914637329455</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>774.6322038126868</v>
+        <v>773.5995271242925</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>785.0694357565069</v>
+        <v>784.6135642191904</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>794.2733530877726</v>
+        <v>794.8776753893076</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>814.6477828823083</v>
+        <v>814.9448793144335</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>839.7106235581484</v>
+        <v>840.1499936560905</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>863.4675658206838</v>
+        <v>864.2965983932891</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>888.7814775094607</v>
+        <v>890.1804452079</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>919.5034018733187</v>
+        <v>921.269888020469</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>961.2464351878386</v>
+        <v>962.0833269695265</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>1066.5544818341757</v>
+        <v>1067.2646208812225</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>1137.3813990263054</v>
+        <v>1137.7116103429626</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>1178.4618417576653</v>
+        <v>1177.7839651901968</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1241.330338021071</v>
+        <v>1238.9668794803054</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>1320.8316072267253</v>
+        <v>1318.0108329183574</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>1384.9435210189258</v>
+        <v>1382.242279023584</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>1447.0735810100566</v>
+        <v>1444.238688200633</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1497.7174664467516</v>
+        <v>1496.7200192588907</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1555.4571020604158</v>
+        <v>1555.1096263786774</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1610.9485716908782</v>
+        <v>1612.5093364243282</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1673.877838686969</v>
+        <v>1676.4230230976484</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1744.1657554378796</v>
+        <v>1746.821642527268</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1813.9896816119306</v>
+        <v>1817.296938369292</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1999.8797182185228</v>
+        <v>2002.4865714496966</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>2058.1724399624536</v>
+        <v>2058.893031984783</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>2131.344787812981</v>
+        <v>2130.0729614852107</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>2201.367311482798</v>
+        <v>2198.3229632880684</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>2326.155940368249</v>
+        <v>2322.115139565279</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>2421.4655145493143</v>
+        <v>2419.390875701518</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2726.3323974108025</v>
+        <v>2725.649686757543</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>2945.874623229482</v>
+        <v>2946.66898296636</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>3090.817881240208</v>
+        <v>3092.1949514708635</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>3237.8412491974195</v>
+        <v>3239.658486208912</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>3371.7297373333777</v>
+        <v>3375.6430051525517</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>3513.4428299844712</v>
+        <v>3517.308083858418</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>3836.9828813762206</v>
+        <v>3837.4141188903473</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>4002.3810853346527</v>
+        <v>3999.2268818343496</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>4164.888418067273</v>
+        <v>4158.109767846383</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>4317.7881832238845</v>
+        <v>4307.563853181734</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>4480.023950117757</v>
+        <v>4472.723310095729</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>4626.108994346373</v>
+        <v>4628.107343631886</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>4791.790268173393</v>
+        <v>4795.843276586555</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>4944.282002490907</v>
+        <v>4952.491879352213</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>5102.451952037914</v>
+        <v>5109.919409859501</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>5245.339266342942</v>
+        <v>5253.930810295334</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>5378.94219322282</v>
+        <v>5390.159478893996</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>5532.052301158412</v>
+        <v>5540.65199093936</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>5710.5999076145235</v>
+        <v>5706.863470436324</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>5851.142623762562</v>
+        <v>5839.139289979147</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>5960.379890754808</v>
+        <v>5946.262725286793</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,15 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>6119.389638640292</v>
+        <v>6083.6790511390445</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>45778.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>6195.095788552353</v>
       </c>
     </row>
   </sheetData>

--- a/lokantama.xlsx
+++ b/lokantama.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>434.6200256100577</v>
+        <v>435.05175980526957</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>438.8156912168861</v>
+        <v>439.0576058782183</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>443.0270032198579</v>
+        <v>443.1497808763679</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>447.2769194230856</v>
+        <v>447.27640062684833</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>451.5493682387005</v>
+        <v>451.58480155148754</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>455.1129837712313</v>
+        <v>455.08226743851037</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>458.1364519000034</v>
+        <v>457.69619028608105</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>462.22975642810235</v>
+        <v>462.036132189405</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>466.1404306823668</v>
+        <v>466.1107432019317</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>469.7004270793875</v>
+        <v>469.79734982335566</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>473.84035841670766</v>
+        <v>474.1177929862383</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>479.0934672373347</v>
+        <v>479.4866947394648</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>484.5058376219674</v>
+        <v>484.9608437548709</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>489.3921154787373</v>
+        <v>489.49998986150814</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>494.62695238029914</v>
+        <v>494.4925361587715</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>500.14864399948505</v>
+        <v>499.75283181194254</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>506.3251655937829</v>
+        <v>505.87864211984356</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>512.6863181378287</v>
+        <v>512.3512971016982</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>518.3330805177955</v>
+        <v>517.8239655573655</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>526.0706213493457</v>
+        <v>525.9012187366058</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>534.9954526444667</v>
+        <v>535.1417592109219</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>559.0239984431136</v>
+        <v>559.473136971692</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>568.1978933564781</v>
+        <v>569.0683186250114</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>575.1221712054961</v>
+        <v>575.9054047226127</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>580.9379683620972</v>
+        <v>581.6914050392671</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>586.485445474192</v>
+        <v>586.7243670233587</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>592.0815504874262</v>
+        <v>591.9335304713769</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>597.5250688129572</v>
+        <v>596.9306691535694</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>605.3270682402277</v>
+        <v>604.4337830163539</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>615.045499310827</v>
+        <v>614.0768158291797</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>623.9143547624899</v>
+        <v>623.3640609718516</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>629.9220006089247</v>
+        <v>629.7497479405502</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>634.9458420284618</v>
+        <v>634.9597659497964</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>642.7188812728879</v>
+        <v>643.3679033618172</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>648.4208253754991</v>
+        <v>649.3638925739267</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>652.423527807132</v>
+        <v>653.348714099788</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>659.0026894731861</v>
+        <v>660.1064223050084</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>665.5801451389599</v>
+        <v>666.0630073431408</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>671.1185302097971</v>
+        <v>671.1090214491817</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>675.6102205349636</v>
+        <v>675.5435620646009</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>678.1719431275384</v>
+        <v>677.4077067731208</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>681.7639718623585</v>
+        <v>680.1670613341644</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>690.156845501261</v>
+        <v>689.4334240928051</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>698.9858399693394</v>
+        <v>698.4539432956315</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>709.1519727964894</v>
+        <v>709.143057944295</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>717.3357621795906</v>
+        <v>717.2634744797061</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>726.8904863787869</v>
+        <v>727.0816441841627</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>738.0768345989705</v>
+        <v>738.9809995092189</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>746.9261699792775</v>
+        <v>748.204376312675</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>751.9534451464875</v>
+        <v>752.7518803645165</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>759.6914637329455</v>
+        <v>760.274685188135</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>773.5995271242925</v>
+        <v>775.0069896172345</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>784.6135642191904</v>
+        <v>785.2871324268158</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>794.8776753893076</v>
+        <v>794.1149083356039</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>814.9448793144335</v>
+        <v>814.5929877747825</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>840.1499936560905</v>
+        <v>839.582299605919</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>864.2965983932891</v>
+        <v>863.2115940899632</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>890.1804452079</v>
+        <v>888.3438794154492</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>921.269888020469</v>
+        <v>918.9381785650764</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>962.0833269695265</v>
+        <v>960.9841740209672</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>1067.2646208812225</v>
+        <v>1066.3211544141138</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>1137.7116103429626</v>
+        <v>1137.2880636467464</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>1177.7839651901968</v>
+        <v>1178.7112751305265</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1238.9668794803054</v>
+        <v>1242.1758080790598</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>1318.0108329183574</v>
+        <v>1321.8507293365665</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>1382.242279023584</v>
+        <v>1385.7815589427194</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>1444.238688200633</v>
+        <v>1447.894450100113</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1496.7200192588907</v>
+        <v>1497.8754975326162</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1555.1096263786774</v>
+        <v>1555.4190846291935</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1612.5093364243282</v>
+        <v>1610.2865624587503</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1676.4230230976484</v>
+        <v>1672.9191818736683</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1746.821642527268</v>
+        <v>1743.2278055661502</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1817.296938369292</v>
+        <v>1812.8999365720986</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>2002.4865714496966</v>
+        <v>1999.1802096755077</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>2058.893031984783</v>
+        <v>2058.239727660556</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>2130.0729614852107</v>
+        <v>2132.249003845299</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>2198.3229632880684</v>
+        <v>2203.003747028842</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>2322.115139565279</v>
+        <v>2327.758178413489</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>2419.390875701518</v>
+        <v>2422.1117401059155</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2725.649686757543</v>
+        <v>2726.323362323133</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>2946.66898296636</v>
+        <v>2945.169536859347</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>3092.1949514708635</v>
+        <v>3089.766328238782</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>3239.658486208912</v>
+        <v>3236.5820196906443</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>3375.6430051525517</v>
+        <v>3369.8228177616993</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>3517.308083858418</v>
+        <v>3511.715346540807</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>3837.4141188903473</v>
+        <v>3836.8194814656754</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>3999.2268818343496</v>
+        <v>4003.9344340955986</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>4158.109767846383</v>
+        <v>4168.272297222505</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>4307.563853181734</v>
+        <v>4323.01049772855</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>4472.723310095729</v>
+        <v>4483.414287005359</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>4628.107343631886</v>
+        <v>4625.64757320829</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>4795.843276586555</v>
+        <v>4790.164380585786</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>4952.491879352213</v>
+        <v>4940.730586051584</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>5109.919409859501</v>
+        <v>5098.860663184525</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>5253.930810295334</v>
+        <v>5241.255728173776</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>5390.159478893996</v>
+        <v>5374.068006583957</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>5540.65199093936</v>
+        <v>5528.250247125829</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>5706.863470436324</v>
+        <v>5711.622150648219</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>5839.139289979147</v>
+        <v>5855.822714902248</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>5946.262725286793</v>
+        <v>5966.556210405673</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>6083.6790511390445</v>
+        <v>6134.8650157827215</v>
       </c>
     </row>
     <row r="103">
@@ -888,7 +888,7 @@
         <v>45778.0</v>
       </c>
       <c r="B103" t="n">
-        <v>6195.095788552353</v>
+        <v>6316.358332733123</v>
       </c>
     </row>
   </sheetData>

--- a/lokantama.xlsx
+++ b/lokantama.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>435.05175980526957</v>
+        <v>435.4042748070031</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>439.0576058782183</v>
+        <v>439.218246381105</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>443.1497808763679</v>
+        <v>443.19024313837934</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>447.27640062684833</v>
+        <v>447.20013983162386</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>451.58480155148754</v>
+        <v>451.49263380017635</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>455.08226743851037</v>
+        <v>454.9447469534687</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>457.69619028608105</v>
+        <v>457.31972535712003</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>462.036132189405</v>
+        <v>461.8610102979362</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>466.1107432019317</v>
+        <v>466.0602227948813</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>469.79734982335566</v>
+        <v>469.8809720115483</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>474.1177929862383</v>
+        <v>474.3545731874221</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>479.4866947394648</v>
+        <v>479.80145776706104</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>484.9608437548709</v>
+        <v>485.33926302757123</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>489.49998986150814</v>
+        <v>489.6100291532731</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>494.4925361587715</v>
+        <v>494.4325861125654</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>499.75283181194254</v>
+        <v>499.5238379079465</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>505.87864211984356</v>
+        <v>505.57695859984096</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>512.3512971016982</v>
+        <v>512.069333082543</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>517.8239655573655</v>
+        <v>517.4204089022512</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>525.9012187366058</v>
+        <v>525.73147539372</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>535.1417592109219</v>
+        <v>535.149195867614</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>559.473136971692</v>
+        <v>559.6971021035616</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>569.0683186250114</v>
+        <v>569.5560962048278</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>575.9054047226127</v>
+        <v>576.3813101894112</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>581.6914050392671</v>
+        <v>582.2083025184177</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>586.7243670233587</v>
+        <v>586.8966446923346</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>591.9335304713769</v>
+        <v>591.8787392785182</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>596.9306691535694</v>
+        <v>596.6499953148613</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>604.4337830163539</v>
+        <v>603.9600766345015</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>614.0768158291797</v>
+        <v>613.4894241912741</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>623.3640609718516</v>
+        <v>622.98277032983</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>629.7497479405502</v>
+        <v>629.5696617925718</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>634.9597659497964</v>
+        <v>634.8756372801696</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>643.3679033618172</v>
+        <v>643.6437633771288</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>649.3638925739267</v>
+        <v>649.8180522920505</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>653.348714099788</v>
+        <v>653.8262384333042</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>660.1064223050084</v>
+        <v>660.742327340515</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>666.0630073431408</v>
+        <v>666.3340379104521</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>671.1090214491817</v>
+        <v>671.1104769737304</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>675.5435620646009</v>
+        <v>675.5870470937282</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>677.4077067731208</v>
+        <v>677.093674991079</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>680.1670613341644</v>
+        <v>679.3685972419195</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>689.4334240928051</v>
+        <v>689.1084538411894</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>698.4539432956315</v>
+        <v>698.1208141341282</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>709.143057944295</v>
+        <v>709.0752771145776</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>717.2634744797061</v>
+        <v>717.1106039803809</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>727.0816441841627</v>
+        <v>727.0426766503214</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>738.9809995092189</v>
+        <v>739.3317342509655</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>748.204376312675</v>
+        <v>748.7718542398396</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>752.7518803645165</v>
+        <v>753.089672862486</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>760.274685188135</v>
+        <v>760.4891767299229</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>775.0069896172345</v>
+        <v>775.7728141245249</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>785.2871324268158</v>
+        <v>785.7318851874707</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>794.1149083356039</v>
+        <v>793.8584525743992</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>814.5929877747825</v>
+        <v>814.5828003698732</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>839.582299605919</v>
+        <v>839.344668076505</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>863.2115940899632</v>
+        <v>862.6856860329693</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>888.3438794154492</v>
+        <v>887.397918388583</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>918.9381785650764</v>
+        <v>917.6670221689277</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>960.9841740209672</v>
+        <v>960.3526857309172</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>1066.3211544141138</v>
+        <v>1065.674725843392</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>1137.2880636467464</v>
+        <v>1137.071819644504</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>1178.7112751305265</v>
+        <v>1179.0805234875352</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1242.1758080790598</v>
+        <v>1243.7437293695803</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>1321.8507293365665</v>
+        <v>1323.8127328513135</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>1385.7815589427194</v>
+        <v>1387.869242205295</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>1447.894450100113</v>
+        <v>1449.9322928697209</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1497.8754975326162</v>
+        <v>1498.3072431757193</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1555.4190846291935</v>
+        <v>1555.4279904557409</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1610.2865624587503</v>
+        <v>1608.846768310255</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1672.9191818736683</v>
+        <v>1670.7349485416273</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1743.2278055661502</v>
+        <v>1740.9977703703457</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1812.8999365720986</v>
+        <v>1810.1095162751103</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1999.1802096755077</v>
+        <v>1997.6091830340388</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>2058.239727660556</v>
+        <v>2057.9364865302678</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>2132.249003845299</v>
+        <v>2133.245874805899</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>2203.003747028842</v>
+        <v>2205.626840266098</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>2327.758178413489</v>
+        <v>2332.5064069365317</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>2422.1117401059155</v>
+        <v>2424.699273275256</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2726.323362323133</v>
+        <v>2727.2891307239693</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>2945.169536859347</v>
+        <v>2944.524531161031</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>3089.766328238782</v>
+        <v>3088.0828237215123</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>3236.5820196906443</v>
+        <v>3234.017619354269</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>3369.8228177616993</v>
+        <v>3365.2115384504377</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>3511.715346540807</v>
+        <v>3506.5490099643516</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>3836.8194814656754</v>
+        <v>3835.2676759171445</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>4003.9344340955986</v>
+        <v>4004.492166587827</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>4168.272297222505</v>
+        <v>4170.193542325288</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>4323.01049772855</v>
+        <v>4328.741360038311</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>4483.414287005359</v>
+        <v>4494.974255856535</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>4625.64757320829</v>
+        <v>4629.370311924785</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>4790.164380585786</v>
+        <v>4791.4354800107285</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>4940.730586051584</v>
+        <v>4937.708953269489</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>5098.860663184525</v>
+        <v>5095.387228808843</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>5241.255728173776</v>
+        <v>5235.494271380072</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>5374.068006583957</v>
+        <v>5364.448874703129</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>5528.250247125829</v>
+        <v>5518.139445842953</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>5711.622150648219</v>
+        <v>5709.993633019636</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>5855.822714902248</v>
+        <v>5858.2256069898685</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>5966.556210405673</v>
+        <v>5967.499960235278</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>6134.8650157827215</v>
+        <v>6144.320307740701</v>
       </c>
     </row>
     <row r="103">
@@ -888,7 +888,15 @@
         <v>45778.0</v>
       </c>
       <c r="B103" t="n">
-        <v>6316.358332733123</v>
+        <v>6340.2484739677375</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>45809.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>6551.312097122832</v>
       </c>
     </row>
   </sheetData>

--- a/lokantama.xlsx
+++ b/lokantama.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>435.4042748070031</v>
+        <v>435.3868682494759</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>439.218246381105</v>
+        <v>439.2104949916917</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>443.19024313837934</v>
+        <v>443.1884604205147</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>447.20013983162386</v>
+        <v>447.20393326981605</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>451.49263380017635</v>
+        <v>451.49756877878235</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>454.9447469534687</v>
+        <v>454.9518317675918</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>457.31972535712003</v>
+        <v>457.33764015736466</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>461.8610102979362</v>
+        <v>461.8692081217048</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>466.0602227948813</v>
+        <v>466.0625497777461</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>469.8809720115483</v>
+        <v>469.8768410915729</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>474.3545731874221</v>
+        <v>474.3429372232019</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>479.80145776706104</v>
+        <v>479.7860754133438</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>485.33926302757123</v>
+        <v>485.3205123109898</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>489.6100291532731</v>
+        <v>489.60414844649114</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>494.4325861125654</v>
+        <v>494.4346259579621</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>499.5238379079465</v>
+        <v>499.5333698774516</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>505.57695859984096</v>
+        <v>505.5901298100509</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>512.069333082543</v>
+        <v>512.082178851258</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>517.4204089022512</v>
+        <v>517.4392427284698</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>525.73147539372</v>
+        <v>525.739612368181</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>535.149195867614</v>
+        <v>535.149375052394</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>559.6971021035616</v>
+        <v>559.6878517123482</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>569.5560962048278</v>
+        <v>569.5345775444255</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>576.3813101894112</v>
+        <v>576.3597019812286</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>582.2083025184177</v>
+        <v>582.1839682373886</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>586.8966446923346</v>
+        <v>586.888100736349</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>591.8787392785182</v>
+        <v>591.8802433410948</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>596.6499953148613</v>
+        <v>596.6606666964349</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>603.9600766345015</v>
+        <v>603.9792298432659</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>613.4894241912741</v>
+        <v>613.5142505640215</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>622.98277032983</v>
+        <v>622.9997425143488</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>629.5696617925718</v>
+        <v>629.5783663373319</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>634.8756372801696</v>
+        <v>634.8804204527086</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>643.6437633771288</v>
+        <v>643.6331950203516</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>649.8180522920505</v>
+        <v>649.7994438476384</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>653.8262384333042</v>
+        <v>653.8059582688313</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>660.742327340515</v>
+        <v>660.714243970669</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>666.3340379104521</v>
+        <v>666.3216137066106</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>671.1104769737304</v>
+        <v>671.1094651614319</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>675.5870470937282</v>
+        <v>675.5825020914182</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>677.093674991079</v>
+        <v>677.103727521366</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>679.3685972419195</v>
+        <v>679.3996201063123</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>689.1084538411894</v>
+        <v>689.1207714542888</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>698.1208141341282</v>
+        <v>698.1358993016619</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>709.0752771145776</v>
+        <v>709.0797515673001</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>717.1106039803809</v>
+        <v>717.1198397257991</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>727.0426766503214</v>
+        <v>727.0473980300794</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>739.3317342509655</v>
+        <v>739.3193144547387</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>748.7718542398396</v>
+        <v>748.7497420742394</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>753.089672862486</v>
+        <v>753.0754979824981</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>760.4891767299229</v>
+        <v>760.4794207383446</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>775.7728141245249</v>
+        <v>775.736244021596</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>785.7318851874707</v>
+        <v>785.7067011469901</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>793.8584525743992</v>
+        <v>793.8616480083608</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>814.5828003698732</v>
+        <v>814.5792004499275</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>839.344668076505</v>
+        <v>839.355101450202</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>862.6856860329693</v>
+        <v>862.7104001181372</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>887.397918388583</v>
+        <v>887.4423837695302</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>917.6670221689277</v>
+        <v>917.7268565983284</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>960.3526857309172</v>
+        <v>960.3844547946244</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>1065.674725843392</v>
+        <v>1065.7092802676038</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>1137.071819644504</v>
+        <v>1137.0800516144132</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>1179.0805234875352</v>
+        <v>1179.0622827285802</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1243.7437293695803</v>
+        <v>1243.6676259006063</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>1323.8127328513135</v>
+        <v>1323.713258069154</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>1387.869242205295</v>
+        <v>1387.7564835657593</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>1449.9322928697209</v>
+        <v>1449.837253758002</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1498.3072431757193</v>
+        <v>1498.2939122760486</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1555.4279904557409</v>
+        <v>1555.4393331135877</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1608.846768310255</v>
+        <v>1608.926263252871</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1670.7349485416273</v>
+        <v>1670.849626970001</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1740.9977703703457</v>
+        <v>1741.1141563649</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1810.1095162751103</v>
+        <v>1810.2505052886552</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1997.6091830340388</v>
+        <v>1997.6742055435159</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>2057.9364865302678</v>
+        <v>2057.9375710138393</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>2133.245874805899</v>
+        <v>2133.1740522700675</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>2205.626840266098</v>
+        <v>2205.460851116062</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>2332.5064069365317</v>
+        <v>2332.221030237067</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>2424.699273275256</v>
+        <v>2424.560945030448</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2727.2891307239693</v>
+        <v>2727.256107576361</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>2944.524531161031</v>
+        <v>2944.5911121247736</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>3088.0828237215123</v>
+        <v>3088.2160860865897</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>3234.017619354269</v>
+        <v>3234.203267161833</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>3365.2115384504377</v>
+        <v>3365.489711233969</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>3506.5490099643516</v>
+        <v>3506.847546036217</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>3835.2676759171445</v>
+        <v>3835.3521380858574</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>4004.492166587827</v>
+        <v>4004.443406746488</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>4170.193542325288</v>
+        <v>4170.026753105644</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>4328.741360038311</v>
+        <v>4328.31419936586</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>4494.974255856535</v>
+        <v>4494.201211759668</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>4629.370311924785</v>
+        <v>4629.120628157962</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>4791.4354800107285</v>
+        <v>4791.404775137383</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>4937.708953269489</v>
+        <v>4937.948334291989</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>5095.387228808843</v>
+        <v>5095.702759431508</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>5235.494271380072</v>
+        <v>5235.942541387166</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>5364.448874703129</v>
+        <v>5365.071634638892</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>5518.139445842953</v>
+        <v>5518.759548961421</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>5709.993633019636</v>
+        <v>5710.13747117967</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>5858.2256069898685</v>
+        <v>5858.081584133041</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>5967.499960235278</v>
+        <v>5967.291255721676</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>6144.320307740701</v>
+        <v>6143.574046799661</v>
       </c>
     </row>
     <row r="103">
@@ -888,7 +888,7 @@
         <v>45778.0</v>
       </c>
       <c r="B103" t="n">
-        <v>6340.2484739677375</v>
+        <v>6338.534017569912</v>
       </c>
     </row>
     <row r="104">
@@ -896,7 +896,7 @@
         <v>45809.0</v>
       </c>
       <c r="B104" t="n">
-        <v>6551.312097122832</v>
+        <v>6546.805475582229</v>
       </c>
     </row>
   </sheetData>
